--- a/public/assets/HRD.xlsx
+++ b/public/assets/HRD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cepatreinamento-my.sharepoint.com/personal/lucas_esteves_cepamobilitycare_com/Documents/Documentos/DADOS JOHNSON/Templates Analitico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511E261E-1FD7-40DA-8D1D-CE2C04917990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734DE769-E026-458C-B0ED-B3F188A2E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1395" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="415">
   <si>
     <t>First Name</t>
   </si>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <t>kvargas5@its.jnj.com</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>UnitedStates Of America</t>
   </si>
 </sst>
 </file>
@@ -1313,12 +1319,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1655,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA5C5B-0DC8-48F7-80DD-8EEE4985A67E}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,7 +1727,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>152919045</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1756,7 +1759,7 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1049711</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1788,7 +1791,7 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1068785</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1820,7 +1823,7 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>152192991</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1852,7 +1855,7 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1040329</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1884,7 +1887,7 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1054851</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1916,7 +1919,7 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1007107</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1948,7 +1951,7 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>152991948</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1980,7 +1983,7 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>75570218</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2012,7 +2015,7 @@
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>152927226</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2044,7 +2047,7 @@
       <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1060276</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2076,7 +2079,7 @@
       <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>152930494</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2108,7 +2111,7 @@
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>152244602</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2140,7 +2143,7 @@
       <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1080198</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2172,7 +2175,7 @@
       <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>152980032</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2204,7 +2207,7 @@
       <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>1050493</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2236,7 +2239,7 @@
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>75564031</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2268,7 +2271,7 @@
       <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>152253578</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2300,7 +2303,7 @@
       <c r="E20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1074093</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2332,7 +2335,7 @@
       <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>152998881</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2364,7 +2367,7 @@
       <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1054054</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2396,7 +2399,7 @@
       <c r="E23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>152885870</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2428,7 +2431,7 @@
       <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>152241619</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2460,7 +2463,7 @@
       <c r="E25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>1059031</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2492,7 +2495,7 @@
       <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1072084</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2524,7 +2527,7 @@
       <c r="E27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>1075096</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2556,7 +2559,7 @@
       <c r="E28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>1054073</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2588,7 +2591,7 @@
       <c r="E29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1038392</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2620,7 +2623,7 @@
       <c r="E30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>152198153</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2652,7 +2655,7 @@
       <c r="E31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1056310</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2684,7 +2687,7 @@
       <c r="E32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>1051588</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2716,7 +2719,7 @@
       <c r="E33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>75813865</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2748,7 +2751,7 @@
       <c r="E34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>1079883</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2780,7 +2783,7 @@
       <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>152973057</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2812,7 +2815,7 @@
       <c r="E36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>1031967</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2844,7 +2847,7 @@
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>152972918</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2876,7 +2879,7 @@
       <c r="E38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>152981402</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2908,7 +2911,7 @@
       <c r="E39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>152248073</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2940,7 +2943,7 @@
       <c r="E40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>152246637</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2972,7 +2975,7 @@
       <c r="E41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>1037732</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3004,7 +3007,7 @@
       <c r="E42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>152909747</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3036,7 +3039,7 @@
       <c r="E43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>1062767</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3068,7 +3071,7 @@
       <c r="E44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>1068838</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3100,7 +3103,7 @@
       <c r="E45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>1000486</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3132,7 +3135,7 @@
       <c r="E46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>1069183</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3164,7 +3167,7 @@
       <c r="E47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>75599629</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3196,7 +3199,7 @@
       <c r="E48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>1016962</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3228,7 +3231,7 @@
       <c r="E49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>152899919</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3260,7 +3263,7 @@
       <c r="E50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>1046993</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3292,7 +3295,7 @@
       <c r="E51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>155004901</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3324,7 +3327,7 @@
       <c r="E52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>1016973</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3356,7 +3359,7 @@
       <c r="E53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>1070182</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3388,7 +3391,7 @@
       <c r="E54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1077981</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3420,7 +3423,7 @@
       <c r="E55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>75564651</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3452,7 +3455,7 @@
       <c r="E56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>152903241</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3484,7 +3487,7 @@
       <c r="E57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>152975089</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3516,7 +3519,7 @@
       <c r="E58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>1062129</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3548,7 +3551,7 @@
       <c r="E59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>1057382</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3580,7 +3583,7 @@
       <c r="E60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>152932644</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3612,7 +3615,7 @@
       <c r="E61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>152969199</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3644,7 +3647,7 @@
       <c r="E62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>1049510</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3676,7 +3679,7 @@
       <c r="E63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>1044256</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3708,7 +3711,7 @@
       <c r="E64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>152930497</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3740,7 +3743,7 @@
       <c r="E65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>152937970</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3772,7 +3775,7 @@
       <c r="E66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>1031559</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -3804,7 +3807,7 @@
       <c r="E67" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>1027665</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -3836,7 +3839,7 @@
       <c r="E68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>1069704</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -3868,7 +3871,7 @@
       <c r="E69" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>1032831</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -3900,7 +3903,7 @@
       <c r="E70" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>1049511</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -3932,7 +3935,7 @@
       <c r="E71" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>1064902</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -3964,7 +3967,7 @@
       <c r="E72" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>1032568</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -3996,7 +3999,7 @@
       <c r="E73" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>152962999</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4028,7 +4031,7 @@
       <c r="E74" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>75566219</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4060,7 +4063,7 @@
       <c r="E75" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>1071399</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -4092,7 +4095,7 @@
       <c r="E76" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>1067253</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -4124,7 +4127,7 @@
       <c r="E77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>75812391</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -4156,7 +4159,7 @@
       <c r="E78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>1007037</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -4188,7 +4191,7 @@
       <c r="E79" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>1053498</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -4220,7 +4223,7 @@
       <c r="E80" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>1053538</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -4252,7 +4255,7 @@
       <c r="E81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>75809088</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4284,7 +4287,7 @@
       <c r="E82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>152217558</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4316,7 +4319,7 @@
       <c r="E83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>75588637</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -4348,7 +4351,7 @@
       <c r="E84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>1036838</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4380,7 +4383,7 @@
       <c r="E85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>1020566</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -4412,7 +4415,7 @@
       <c r="E86" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>152240004</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -4444,7 +4447,7 @@
       <c r="E87" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>1030541</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4476,7 +4479,7 @@
       <c r="E88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>1068183</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4508,7 +4511,7 @@
       <c r="E89" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>1074614</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -4540,7 +4543,7 @@
       <c r="E90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>1054057</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -4572,7 +4575,7 @@
       <c r="E91" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>1047699</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -4604,7 +4607,7 @@
       <c r="E92" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>1038594</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -4636,7 +4639,7 @@
       <c r="E93" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>152990045</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -4668,7 +4671,7 @@
       <c r="E94" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>1054450</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -4700,7 +4703,7 @@
       <c r="E95" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>1068624</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -4732,7 +4735,7 @@
       <c r="E96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>1061184</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -4764,7 +4767,7 @@
       <c r="E97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>152245055</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -5961,6 +5964,358 @@
         <v>33</v>
       </c>
       <c r="J134" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" s="1">
+        <v>152916010</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1064390</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F137" s="1">
+        <v>35002951</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F138" s="1">
+        <v>152236583</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F139" s="1">
+        <v>84005004</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F140" s="1">
+        <v>152232430</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1054689</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1060321</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F143" s="1">
+        <v>152806939</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F144" s="1">
+        <v>152839453</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" s="1">
+        <v>152846461</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>375</v>
       </c>
     </row>

--- a/public/assets/HRD.xlsx
+++ b/public/assets/HRD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734DE769-E026-458C-B0ED-B3F188A2E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F9D64-8228-491E-B9F0-0F24E84013FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
   </bookViews>
@@ -1283,7 +1283,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>UnitedStates Of America</t>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA5C5B-0DC8-48F7-80DD-8EEE4985A67E}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1669,7 @@
     <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>

--- a/public/assets/HRD.xlsx
+++ b/public/assets/HRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cepatreinamento-my.sharepoint.com/personal/lucas_esteves_cepamobilitycare_com/Documents/Documentos/DADOS JOHNSON/Templates Analitico/HRD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F9D64-8228-491E-B9F0-0F24E84013FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{00EF1100-420C-4B83-A070-8EC411329FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2DA056-6BBD-47FE-B442-5212BF256CE2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
+    <workbookView xWindow="-28920" yWindow="1395" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="431">
   <si>
     <t>First Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>lgomes18@its.jnj.com</t>
   </si>
   <si>
-    <t>Innovative Medicine</t>
-  </si>
-  <si>
     <t>Jan-Cil Brazil</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>jolivei8@its.jnj.com</t>
   </si>
   <si>
-    <t>MedTech</t>
-  </si>
-  <si>
-    <t>J&amp;J Medical Brazil Mfg</t>
-  </si>
-  <si>
     <t>Non sales</t>
   </si>
   <si>
@@ -209,21 +200,12 @@
     <t>rbroglia@its.jnj.com</t>
   </si>
   <si>
-    <t>Global Services</t>
-  </si>
-  <si>
     <t>GFS LATAM</t>
   </si>
   <si>
     <t>FELIPE</t>
   </si>
   <si>
-    <t>TSUKANAMOTO</t>
-  </si>
-  <si>
-    <t>ftsukamo@its.jnj.com</t>
-  </si>
-  <si>
     <t>CAROLINA</t>
   </si>
   <si>
@@ -389,15 +371,6 @@
     <t>agonca16@its.jnj.com</t>
   </si>
   <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>PEDROSO CAPELA</t>
-  </si>
-  <si>
-    <t>fcapela@its.jnj.com</t>
-  </si>
-  <si>
     <t>ROMULO</t>
   </si>
   <si>
@@ -425,9 +398,6 @@
     <t>nrodri64@its.jnj.com</t>
   </si>
   <si>
-    <t>Vision Care</t>
-  </si>
-  <si>
     <t>Vistakon Brazil</t>
   </si>
   <si>
@@ -464,9 +434,6 @@
     <t>mfiore10@its.jnj.com</t>
   </si>
   <si>
-    <t>Surgical Vision</t>
-  </si>
-  <si>
     <t>AMO Brazil</t>
   </si>
   <si>
@@ -743,15 +710,6 @@
     <t>kceccato@its.jnj.com</t>
   </si>
   <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>SUZART COSTA LEAL</t>
-  </si>
-  <si>
-    <t>aleal7@its.jnj.com</t>
-  </si>
-  <si>
     <t>MOREIRA BICHARA</t>
   </si>
   <si>
@@ -938,42 +896,18 @@
     <t>BRAVO TREJO</t>
   </si>
   <si>
-    <t>CAROLINA NATALIA</t>
-  </si>
-  <si>
-    <t>CANTARELLA</t>
-  </si>
-  <si>
     <t>SERGIO ARTURO</t>
   </si>
   <si>
     <t>CERDA RUBI</t>
   </si>
   <si>
-    <t>SANDRA GISELLE</t>
-  </si>
-  <si>
-    <t>DAVILA ECHEVERRIA</t>
-  </si>
-  <si>
     <t>JAIR CARLOS</t>
   </si>
   <si>
     <t>DURAN PATINO</t>
   </si>
   <si>
-    <t>MIRNA AMALIA</t>
-  </si>
-  <si>
-    <t>ERAZO OLGUIN</t>
-  </si>
-  <si>
-    <t>CARMEN MARIA</t>
-  </si>
-  <si>
-    <t>FERNANDEZ ANDRADE</t>
-  </si>
-  <si>
     <t>ELIZABETH ANAHI</t>
   </si>
   <si>
@@ -1031,15 +965,9 @@
     <t>JIMENA</t>
   </si>
   <si>
-    <t>LARA ALBARRAN</t>
-  </si>
-  <si>
     <t>PAMELA</t>
   </si>
   <si>
-    <t>LAVALLE</t>
-  </si>
-  <si>
     <t>LILIANA</t>
   </si>
   <si>
@@ -1052,12 +980,6 @@
     <t>LUNA GARCIA</t>
   </si>
   <si>
-    <t>ANA PAOLA</t>
-  </si>
-  <si>
-    <t>LUNA PONZIO</t>
-  </si>
-  <si>
     <t>MAGDALENA INES</t>
   </si>
   <si>
@@ -1118,12 +1040,6 @@
     <t>SOLEDAD ROMERO GONZALES</t>
   </si>
   <si>
-    <t>JAVIER GEOVANNI</t>
-  </si>
-  <si>
-    <t>TELLEZ GONZALEZ</t>
-  </si>
-  <si>
     <t>HENRY DANIEL</t>
   </si>
   <si>
@@ -1178,24 +1094,12 @@
     <t>mbravotr@its.jnj.com</t>
   </si>
   <si>
-    <t>ccantare@its.jnj.com</t>
-  </si>
-  <si>
     <t>scerdaru@its.jnj.com</t>
   </si>
   <si>
-    <t>sdavila2@its.jnj.com</t>
-  </si>
-  <si>
     <t>jduranp1@its.jnj.com</t>
   </si>
   <si>
-    <t>merazool@its.jnj.com</t>
-  </si>
-  <si>
-    <t>cferna71@its.jnj.com</t>
-  </si>
-  <si>
     <t>eflore32@its.jnj.com</t>
   </si>
   <si>
@@ -1223,21 +1127,12 @@
     <t>jkesten1@its.jnj.com</t>
   </si>
   <si>
-    <t>jlaraal1@its.jnj.com</t>
-  </si>
-  <si>
-    <t>plavalle@its.jnj.com</t>
-  </si>
-  <si>
     <t>llopezhe@its.jnj.com</t>
   </si>
   <si>
     <t>pluna01@its.jnj.com</t>
   </si>
   <si>
-    <t>aluna2@its.jnj.com</t>
-  </si>
-  <si>
     <t>mlalis@its.jnj.com</t>
   </si>
   <si>
@@ -1271,19 +1166,172 @@
     <t>sromerog@its.jnj.com</t>
   </si>
   <si>
-    <t>jtellezg@its.jnj.com</t>
-  </si>
-  <si>
     <t>htorresa@its.jnj.com</t>
   </si>
   <si>
     <t>kvargas5@its.jnj.com</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>United States of America</t>
+    <t>INNOVATIVE MEDICINE</t>
+  </si>
+  <si>
+    <t>MEDTECH</t>
+  </si>
+  <si>
+    <t>GLOBAL SERVICES</t>
+  </si>
+  <si>
+    <t>VISION CARE</t>
+  </si>
+  <si>
+    <t>SURGICAL VISION</t>
+  </si>
+  <si>
+    <t>RTSC Latam</t>
+  </si>
+  <si>
+    <t>ALICIA</t>
+  </si>
+  <si>
+    <t>ALCAZAR MENDEZ</t>
+  </si>
+  <si>
+    <t>aalcaza@its.jnj.com</t>
+  </si>
+  <si>
+    <t>Vistakon Mexico</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>ALVIREZ ROSAS</t>
+  </si>
+  <si>
+    <t>galvirez@its.jnj.com</t>
+  </si>
+  <si>
+    <t>EVELYN ADRIANA</t>
+  </si>
+  <si>
+    <t>CABRAL SERRANO</t>
+  </si>
+  <si>
+    <t>ecabrals@its.jnj.com</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>FERNANDO MORENO PEREZ</t>
+  </si>
+  <si>
+    <t>lmoren33@its.jnj.com</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>GARCIA ROSAS</t>
+  </si>
+  <si>
+    <t>bgarci54@its.jnj.com</t>
+  </si>
+  <si>
+    <t>ZAIRA CRISTINA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>zhernan9@its.jnj.com</t>
+  </si>
+  <si>
+    <t>LARROSA</t>
+  </si>
+  <si>
+    <t>jlarrosa@its.jnj.com</t>
+  </si>
+  <si>
+    <t>CESAR OCTAVIO</t>
+  </si>
+  <si>
+    <t>MERCADO FIERRO</t>
+  </si>
+  <si>
+    <t>cmerca12@its.jnj.com</t>
+  </si>
+  <si>
+    <t>Vistakon Southern Cone</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>PANTOJA ALVARADO</t>
+  </si>
+  <si>
+    <t>Puerto Rico NA</t>
+  </si>
+  <si>
+    <t>hpantoja@its.jnj.com</t>
+  </si>
+  <si>
+    <t>AMO (J&amp;J Vision) Puerto Rico Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>RIVERA TREJO</t>
+  </si>
+  <si>
+    <t>rrive131@its.jnj.com</t>
+  </si>
+  <si>
+    <t>FLORENCIA MABEL</t>
+  </si>
+  <si>
+    <t>SANDHAM LOPEZ</t>
+  </si>
+  <si>
+    <t>fsandham@its.jnj.com</t>
+  </si>
+  <si>
+    <t>EDURNE</t>
+  </si>
+  <si>
+    <t>SANDOVAL DIEZ</t>
+  </si>
+  <si>
+    <t>esandov1@its.jnj.com</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t>SIELE</t>
+  </si>
+  <si>
+    <t>msiele@its.jnj.com</t>
+  </si>
+  <si>
+    <t>ANDREA VANESSA</t>
+  </si>
+  <si>
+    <t>VELASCO IBARRA</t>
+  </si>
+  <si>
+    <t>aibarr13@its.jnj.com</t>
+  </si>
+  <si>
+    <t>ANNETTE</t>
+  </si>
+  <si>
+    <t>YANES BOSCH</t>
+  </si>
+  <si>
+    <t>ayanesbo@its.jnj.com</t>
+  </si>
+  <si>
+    <t>Janssen Sales</t>
   </si>
 </sst>
 </file>
@@ -1658,15 +1706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA5C5B-0DC8-48F7-80DD-8EEE4985A67E}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1687,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1708,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1719,10 +1767,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1731,4592 +1779,4368 @@
         <v>152919045</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>1049711</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>1068785</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>152192991</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>1040329</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>1054851</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>1007107</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1">
         <v>152991948</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>75570218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>152927226</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1">
         <v>1060276</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
         <v>152930494</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
         <v>152244602</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1">
         <v>1080198</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>379</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
-        <v>152980032</v>
+        <v>1050493</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
-        <v>1050493</v>
+        <v>75564031</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
-        <v>75564031</v>
+        <v>152253578</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1">
-        <v>152253578</v>
+        <v>1074093</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
-        <v>1074093</v>
+        <v>152998881</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1">
-        <v>152998881</v>
+        <v>1054054</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1">
-        <v>1054054</v>
+        <v>152885870</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1">
-        <v>152885870</v>
+        <v>152241619</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1">
-        <v>152241619</v>
+        <v>1059031</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1">
-        <v>1059031</v>
+        <v>1072084</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1">
-        <v>1072084</v>
+        <v>1075096</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1">
-        <v>1075096</v>
+        <v>1054073</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1">
-        <v>1054073</v>
+        <v>1038392</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1">
-        <v>1038392</v>
+        <v>152198153</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1">
-        <v>152198153</v>
+        <v>1056310</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1">
-        <v>1056310</v>
+        <v>1051588</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1">
-        <v>1051588</v>
+        <v>75813865</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1">
-        <v>75813865</v>
+        <v>1079883</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1">
-        <v>1079883</v>
+        <v>152973057</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1">
-        <v>152973057</v>
+        <v>1031967</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1">
-        <v>1031967</v>
+        <v>152972918</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1">
-        <v>152972918</v>
+        <v>152248073</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1">
-        <v>152981402</v>
+        <v>152246637</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1037732</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="1">
-        <v>152248073</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1">
-        <v>152246637</v>
+        <v>152909747</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F41" s="1">
-        <v>1037732</v>
+        <v>1062767</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F42" s="1">
-        <v>152909747</v>
+        <v>1068838</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>379</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>1062767</v>
+        <v>1000486</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1">
-        <v>1068838</v>
+        <v>1069183</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1">
-        <v>1000486</v>
+        <v>75599629</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>377</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1">
-        <v>1069183</v>
+        <v>1016962</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1">
-        <v>75599629</v>
+        <v>152899919</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1">
-        <v>1016962</v>
+        <v>1046993</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1">
-        <v>152899919</v>
+        <v>155004901</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F50" s="1">
-        <v>1046993</v>
+        <v>1016973</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F51" s="1">
-        <v>155004901</v>
+        <v>1070182</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1">
-        <v>1016973</v>
+        <v>1077981</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F53" s="1">
-        <v>1070182</v>
+        <v>75564651</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F54" s="1">
-        <v>1077981</v>
+        <v>152903241</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F55" s="1">
-        <v>75564651</v>
+        <v>152975089</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1">
-        <v>152903241</v>
+        <v>1062129</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F57" s="1">
-        <v>152975089</v>
+        <v>1057382</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F58" s="1">
-        <v>1062129</v>
+        <v>152932644</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1">
-        <v>1057382</v>
+        <v>152969199</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F60" s="1">
-        <v>152932644</v>
+        <v>1049510</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F61" s="1">
-        <v>152969199</v>
+        <v>1044256</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F62" s="1">
-        <v>1049510</v>
+        <v>152930497</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1">
-        <v>1044256</v>
+        <v>152937970</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F64" s="1">
-        <v>152930497</v>
+        <v>1031559</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F65" s="1">
-        <v>152937970</v>
+        <v>1027665</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F66" s="1">
-        <v>1031559</v>
+        <v>1069704</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F67" s="1">
-        <v>1027665</v>
+        <v>1032831</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>141</v>
+        <v>377</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F68" s="1">
-        <v>1069704</v>
+        <v>1049511</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F69" s="1">
-        <v>1032831</v>
+        <v>1064902</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F70" s="1">
-        <v>1049511</v>
+        <v>1032568</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F71" s="1">
-        <v>1064902</v>
+        <v>152962999</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1">
-        <v>1032568</v>
+        <v>75566219</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F73" s="1">
-        <v>152962999</v>
+        <v>1071399</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F74" s="1">
-        <v>75566219</v>
+        <v>1067253</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F75" s="1">
-        <v>1071399</v>
+        <v>75812391</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F76" s="1">
-        <v>1067253</v>
+        <v>1007037</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F77" s="1">
-        <v>75812391</v>
+        <v>1053538</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F78" s="1">
-        <v>1007037</v>
+        <v>75809088</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F79" s="1">
-        <v>1053498</v>
+        <v>152217558</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F80" s="1">
-        <v>1053538</v>
+        <v>75588637</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F81" s="1">
-        <v>75809088</v>
+        <v>1036838</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F82" s="1">
-        <v>152217558</v>
+        <v>1020566</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F83" s="1">
-        <v>75588637</v>
+        <v>152240004</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F84" s="1">
-        <v>1036838</v>
+        <v>1030541</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F85" s="1">
-        <v>1020566</v>
+        <v>1068183</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F86" s="1">
-        <v>152240004</v>
+        <v>1074614</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F87" s="1">
-        <v>1030541</v>
+        <v>1054057</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F88" s="1">
-        <v>1068183</v>
+        <v>1047699</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F89" s="1">
-        <v>1074614</v>
+        <v>1038594</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F90" s="1">
-        <v>1054057</v>
+        <v>152990045</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F91" s="1">
-        <v>1047699</v>
+        <v>1054450</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F92" s="1">
-        <v>1038594</v>
+        <v>1068624</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F93" s="1">
-        <v>152990045</v>
+        <v>1061184</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F94" s="1">
-        <v>1054450</v>
+        <v>152245055</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="F95" s="1">
-        <v>1068624</v>
+        <v>152219765</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="F96" s="1">
-        <v>1061184</v>
+        <v>152833822</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="F97" s="1">
-        <v>152245055</v>
+        <v>152835112</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="F98" s="1">
-        <v>152219765</v>
+        <v>152245525</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="F99" s="1">
-        <v>152245525</v>
+        <v>152050882</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F100" s="1">
-        <v>152050882</v>
+        <v>152250524</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F101" s="1">
-        <v>1021493</v>
+        <v>152843669</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="F102" s="1">
-        <v>152843669</v>
+        <v>152228444</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F103" s="1">
-        <v>152035319</v>
+        <v>152241744</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="F104" s="1">
-        <v>152228444</v>
+        <v>152940302</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F105" s="1">
-        <v>152807386</v>
+        <v>35005062</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="F106" s="1">
-        <v>152068597</v>
+        <v>35004875</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F107" s="1">
-        <v>152940302</v>
+        <v>152236712</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="F108" s="1">
-        <v>35005062</v>
+        <v>35006097</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F109" s="1">
-        <v>35004875</v>
+        <v>152953552</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="F110" s="1">
-        <v>35006097</v>
+        <v>35002701</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="F111" s="1">
-        <v>35002701</v>
+        <v>152067762</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="F112" s="1">
-        <v>152067762</v>
+        <v>152989095</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="F113" s="1">
-        <v>152989095</v>
+        <v>152218673</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="F114" s="1">
-        <v>152218673</v>
+        <v>152184316</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F115" s="1">
-        <v>152184316</v>
+        <v>1015510</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F116" s="1">
-        <v>152872946</v>
+        <v>152832755</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F117" s="1">
-        <v>152939257</v>
+        <v>35002542</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="F118" s="1">
-        <v>152832755</v>
+        <v>59004485</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="F119" s="1">
-        <v>35002542</v>
+        <v>152899481</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F120" s="1">
-        <v>84003354</v>
+        <v>152863259</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F121" s="1">
-        <v>59004485</v>
+        <v>152902143</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F122" s="1">
-        <v>152899481</v>
+        <v>155000628</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="F123" s="1">
-        <v>152902143</v>
+        <v>152916010</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="F124" s="1">
-        <v>152916010</v>
+        <v>1064390</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="F125" s="1">
-        <v>1064390</v>
+        <v>35002951</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F126" s="1">
-        <v>35002951</v>
+        <v>152225164</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="F127" s="1">
         <v>152236583</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F128" s="1">
-        <v>84005004</v>
+        <v>84005494</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F129" s="1">
-        <v>152232430</v>
+        <v>152901759</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="F130" s="1">
-        <v>1054689</v>
+        <v>84005004</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="F131" s="1">
-        <v>1060321</v>
+        <v>152232430</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F132" s="1">
-        <v>152806939</v>
+        <v>1072367</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="F133" s="1">
-        <v>152839453</v>
+        <v>1054689</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="F134" s="1">
-        <v>152846461</v>
+        <v>1060321</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="F135" s="1">
-        <v>152916010</v>
+        <v>152839453</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F136" s="1">
+        <v>152846461</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1064390</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="F137" s="1">
-        <v>35002951</v>
+        <v>152817389</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F138" s="1">
-        <v>152236583</v>
+        <v>152903960</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F139" s="1">
-        <v>84005004</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F140" s="1">
-        <v>152232430</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1054689</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1060321</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F143" s="1">
-        <v>152806939</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F144" s="1">
-        <v>152839453</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F145" s="1">
-        <v>152846461</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/HRD.xlsx
+++ b/public/assets/HRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cepatreinamento-my.sharepoint.com/personal/lucas_esteves_cepamobilitycare_com/Documents/Documentos/DADOS JOHNSON/Templates Analitico/HRD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{00EF1100-420C-4B83-A070-8EC411329FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2DA056-6BBD-47FE-B442-5212BF256CE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F9D64-8228-491E-B9F0-0F24E84013FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1395" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5FB4212-47C7-4E3F-BDAE-6C9DD0098D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="415">
   <si>
     <t>First Name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>lgomes18@its.jnj.com</t>
   </si>
   <si>
+    <t>Innovative Medicine</t>
+  </si>
+  <si>
     <t>Jan-Cil Brazil</t>
   </si>
   <si>
@@ -131,6 +134,12 @@
     <t>jolivei8@its.jnj.com</t>
   </si>
   <si>
+    <t>MedTech</t>
+  </si>
+  <si>
+    <t>J&amp;J Medical Brazil Mfg</t>
+  </si>
+  <si>
     <t>Non sales</t>
   </si>
   <si>
@@ -200,12 +209,21 @@
     <t>rbroglia@its.jnj.com</t>
   </si>
   <si>
+    <t>Global Services</t>
+  </si>
+  <si>
     <t>GFS LATAM</t>
   </si>
   <si>
     <t>FELIPE</t>
   </si>
   <si>
+    <t>TSUKANAMOTO</t>
+  </si>
+  <si>
+    <t>ftsukamo@its.jnj.com</t>
+  </si>
+  <si>
     <t>CAROLINA</t>
   </si>
   <si>
@@ -371,6 +389,15 @@
     <t>agonca16@its.jnj.com</t>
   </si>
   <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>PEDROSO CAPELA</t>
+  </si>
+  <si>
+    <t>fcapela@its.jnj.com</t>
+  </si>
+  <si>
     <t>ROMULO</t>
   </si>
   <si>
@@ -398,6 +425,9 @@
     <t>nrodri64@its.jnj.com</t>
   </si>
   <si>
+    <t>Vision Care</t>
+  </si>
+  <si>
     <t>Vistakon Brazil</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>mfiore10@its.jnj.com</t>
   </si>
   <si>
+    <t>Surgical Vision</t>
+  </si>
+  <si>
     <t>AMO Brazil</t>
   </si>
   <si>
@@ -710,6 +743,15 @@
     <t>kceccato@its.jnj.com</t>
   </si>
   <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>SUZART COSTA LEAL</t>
+  </si>
+  <si>
+    <t>aleal7@its.jnj.com</t>
+  </si>
+  <si>
     <t>MOREIRA BICHARA</t>
   </si>
   <si>
@@ -896,18 +938,42 @@
     <t>BRAVO TREJO</t>
   </si>
   <si>
+    <t>CAROLINA NATALIA</t>
+  </si>
+  <si>
+    <t>CANTARELLA</t>
+  </si>
+  <si>
     <t>SERGIO ARTURO</t>
   </si>
   <si>
     <t>CERDA RUBI</t>
   </si>
   <si>
+    <t>SANDRA GISELLE</t>
+  </si>
+  <si>
+    <t>DAVILA ECHEVERRIA</t>
+  </si>
+  <si>
     <t>JAIR CARLOS</t>
   </si>
   <si>
     <t>DURAN PATINO</t>
   </si>
   <si>
+    <t>MIRNA AMALIA</t>
+  </si>
+  <si>
+    <t>ERAZO OLGUIN</t>
+  </si>
+  <si>
+    <t>CARMEN MARIA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ ANDRADE</t>
+  </si>
+  <si>
     <t>ELIZABETH ANAHI</t>
   </si>
   <si>
@@ -965,9 +1031,15 @@
     <t>JIMENA</t>
   </si>
   <si>
+    <t>LARA ALBARRAN</t>
+  </si>
+  <si>
     <t>PAMELA</t>
   </si>
   <si>
+    <t>LAVALLE</t>
+  </si>
+  <si>
     <t>LILIANA</t>
   </si>
   <si>
@@ -980,6 +1052,12 @@
     <t>LUNA GARCIA</t>
   </si>
   <si>
+    <t>ANA PAOLA</t>
+  </si>
+  <si>
+    <t>LUNA PONZIO</t>
+  </si>
+  <si>
     <t>MAGDALENA INES</t>
   </si>
   <si>
@@ -1040,6 +1118,12 @@
     <t>SOLEDAD ROMERO GONZALES</t>
   </si>
   <si>
+    <t>JAVIER GEOVANNI</t>
+  </si>
+  <si>
+    <t>TELLEZ GONZALEZ</t>
+  </si>
+  <si>
     <t>HENRY DANIEL</t>
   </si>
   <si>
@@ -1094,12 +1178,24 @@
     <t>mbravotr@its.jnj.com</t>
   </si>
   <si>
+    <t>ccantare@its.jnj.com</t>
+  </si>
+  <si>
     <t>scerdaru@its.jnj.com</t>
   </si>
   <si>
+    <t>sdavila2@its.jnj.com</t>
+  </si>
+  <si>
     <t>jduranp1@its.jnj.com</t>
   </si>
   <si>
+    <t>merazool@its.jnj.com</t>
+  </si>
+  <si>
+    <t>cferna71@its.jnj.com</t>
+  </si>
+  <si>
     <t>eflore32@its.jnj.com</t>
   </si>
   <si>
@@ -1127,12 +1223,21 @@
     <t>jkesten1@its.jnj.com</t>
   </si>
   <si>
+    <t>jlaraal1@its.jnj.com</t>
+  </si>
+  <si>
+    <t>plavalle@its.jnj.com</t>
+  </si>
+  <si>
     <t>llopezhe@its.jnj.com</t>
   </si>
   <si>
     <t>pluna01@its.jnj.com</t>
   </si>
   <si>
+    <t>aluna2@its.jnj.com</t>
+  </si>
+  <si>
     <t>mlalis@its.jnj.com</t>
   </si>
   <si>
@@ -1166,172 +1271,19 @@
     <t>sromerog@its.jnj.com</t>
   </si>
   <si>
+    <t>jtellezg@its.jnj.com</t>
+  </si>
+  <si>
     <t>htorresa@its.jnj.com</t>
   </si>
   <si>
     <t>kvargas5@its.jnj.com</t>
   </si>
   <si>
-    <t>INNOVATIVE MEDICINE</t>
-  </si>
-  <si>
-    <t>MEDTECH</t>
-  </si>
-  <si>
-    <t>GLOBAL SERVICES</t>
-  </si>
-  <si>
-    <t>VISION CARE</t>
-  </si>
-  <si>
-    <t>SURGICAL VISION</t>
-  </si>
-  <si>
-    <t>RTSC Latam</t>
-  </si>
-  <si>
-    <t>ALICIA</t>
-  </si>
-  <si>
-    <t>ALCAZAR MENDEZ</t>
-  </si>
-  <si>
-    <t>aalcaza@its.jnj.com</t>
-  </si>
-  <si>
-    <t>Vistakon Mexico</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>ALVIREZ ROSAS</t>
-  </si>
-  <si>
-    <t>galvirez@its.jnj.com</t>
-  </si>
-  <si>
-    <t>EVELYN ADRIANA</t>
-  </si>
-  <si>
-    <t>CABRAL SERRANO</t>
-  </si>
-  <si>
-    <t>ecabrals@its.jnj.com</t>
-  </si>
-  <si>
-    <t>CD5</t>
-  </si>
-  <si>
-    <t>FERNANDO MORENO PEREZ</t>
-  </si>
-  <si>
-    <t>lmoren33@its.jnj.com</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>GARCIA ROSAS</t>
-  </si>
-  <si>
-    <t>bgarci54@its.jnj.com</t>
-  </si>
-  <si>
-    <t>ZAIRA CRISTINA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>zhernan9@its.jnj.com</t>
-  </si>
-  <si>
-    <t>LARROSA</t>
-  </si>
-  <si>
-    <t>jlarrosa@its.jnj.com</t>
-  </si>
-  <si>
-    <t>CESAR OCTAVIO</t>
-  </si>
-  <si>
-    <t>MERCADO FIERRO</t>
-  </si>
-  <si>
-    <t>cmerca12@its.jnj.com</t>
-  </si>
-  <si>
-    <t>Vistakon Southern Cone</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>PANTOJA ALVARADO</t>
-  </si>
-  <si>
-    <t>Puerto Rico NA</t>
-  </si>
-  <si>
-    <t>hpantoja@its.jnj.com</t>
-  </si>
-  <si>
-    <t>AMO (J&amp;J Vision) Puerto Rico Manufacturing, Inc.</t>
-  </si>
-  <si>
-    <t>RIVERA TREJO</t>
-  </si>
-  <si>
-    <t>rrive131@its.jnj.com</t>
-  </si>
-  <si>
-    <t>FLORENCIA MABEL</t>
-  </si>
-  <si>
-    <t>SANDHAM LOPEZ</t>
-  </si>
-  <si>
-    <t>fsandham@its.jnj.com</t>
-  </si>
-  <si>
-    <t>EDURNE</t>
-  </si>
-  <si>
-    <t>SANDOVAL DIEZ</t>
-  </si>
-  <si>
-    <t>esandov1@its.jnj.com</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA</t>
-  </si>
-  <si>
-    <t>SIELE</t>
-  </si>
-  <si>
-    <t>msiele@its.jnj.com</t>
-  </si>
-  <si>
-    <t>ANDREA VANESSA</t>
-  </si>
-  <si>
-    <t>VELASCO IBARRA</t>
-  </si>
-  <si>
-    <t>aibarr13@its.jnj.com</t>
-  </si>
-  <si>
-    <t>ANNETTE</t>
-  </si>
-  <si>
-    <t>YANES BOSCH</t>
-  </si>
-  <si>
-    <t>ayanesbo@its.jnj.com</t>
-  </si>
-  <si>
-    <t>Janssen Sales</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -1706,15 +1658,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA5C5B-0DC8-48F7-80DD-8EEE4985A67E}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1735,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1756,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1767,10 +1719,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1779,4368 +1731,4592 @@
         <v>152919045</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>1049711</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>1068785</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>152192991</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>1040329</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>1054851</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>1007107</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>152991948</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>75570218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
         <v>152927226</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
         <v>1060276</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1">
         <v>152930494</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>152244602</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1">
         <v>1080198</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>1050493</v>
+        <v>152980032</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
-        <v>75564031</v>
+        <v>1050493</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
-        <v>152253578</v>
+        <v>75564031</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
-        <v>1074093</v>
+        <v>152253578</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1">
-        <v>152998881</v>
+        <v>1074093</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1">
-        <v>1054054</v>
+        <v>152998881</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
-        <v>152885870</v>
+        <v>1054054</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1">
-        <v>152241619</v>
+        <v>152885870</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1">
-        <v>1059031</v>
+        <v>152241619</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1">
-        <v>1072084</v>
+        <v>1059031</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1">
-        <v>1075096</v>
+        <v>1072084</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>1054073</v>
+        <v>1075096</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1">
-        <v>1038392</v>
+        <v>1054073</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1">
-        <v>152198153</v>
+        <v>1038392</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F30" s="1">
-        <v>1056310</v>
+        <v>152198153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1">
-        <v>1051588</v>
+        <v>1056310</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1">
-        <v>75813865</v>
+        <v>1051588</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1">
-        <v>1079883</v>
+        <v>75813865</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F34" s="1">
-        <v>152973057</v>
+        <v>1079883</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1">
-        <v>1031967</v>
+        <v>152973057</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1">
-        <v>152972918</v>
+        <v>1031967</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1">
-        <v>152248073</v>
+        <v>152972918</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F38" s="1">
-        <v>152246637</v>
+        <v>152981402</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1">
-        <v>1037732</v>
+        <v>152248073</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1">
-        <v>152909747</v>
+        <v>152246637</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F41" s="1">
-        <v>1062767</v>
+        <v>1037732</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F42" s="1">
-        <v>1068838</v>
+        <v>152909747</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F43" s="1">
-        <v>1000486</v>
+        <v>1062767</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1">
-        <v>1069183</v>
+        <v>1068838</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>378</v>
+        <v>56</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>75599629</v>
+        <v>1000486</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>1016962</v>
+        <v>1069183</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F47" s="1">
-        <v>152899919</v>
+        <v>75599629</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F48" s="1">
-        <v>1046993</v>
+        <v>1016962</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F49" s="1">
-        <v>155004901</v>
+        <v>152899919</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F50" s="1">
-        <v>1016973</v>
+        <v>1046993</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F51" s="1">
-        <v>1070182</v>
+        <v>155004901</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>380</v>
+        <v>141</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F52" s="1">
-        <v>1077981</v>
+        <v>1016973</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F53" s="1">
-        <v>75564651</v>
+        <v>1070182</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F54" s="1">
-        <v>152903241</v>
+        <v>1077981</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F55" s="1">
-        <v>152975089</v>
+        <v>75564651</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F56" s="1">
-        <v>1062129</v>
+        <v>152903241</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F57" s="1">
-        <v>1057382</v>
+        <v>152975089</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F58" s="1">
-        <v>152932644</v>
+        <v>1062129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F59" s="1">
-        <v>152969199</v>
+        <v>1057382</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F60" s="1">
-        <v>1049510</v>
+        <v>152932644</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F61" s="1">
-        <v>1044256</v>
+        <v>152969199</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1">
-        <v>152930497</v>
+        <v>1049510</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>378</v>
+        <v>141</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F63" s="1">
-        <v>152937970</v>
+        <v>1044256</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F64" s="1">
-        <v>1031559</v>
+        <v>152930497</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F65" s="1">
-        <v>1027665</v>
+        <v>152937970</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F66" s="1">
-        <v>1069704</v>
+        <v>1031559</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F67" s="1">
-        <v>1032831</v>
+        <v>1027665</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F68" s="1">
-        <v>1049511</v>
+        <v>1069704</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1">
-        <v>1064902</v>
+        <v>1032831</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F70" s="1">
-        <v>1032568</v>
+        <v>1049511</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F71" s="1">
-        <v>152962999</v>
+        <v>1064902</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F72" s="1">
-        <v>75566219</v>
+        <v>1032568</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F73" s="1">
-        <v>1071399</v>
+        <v>152962999</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F74" s="1">
-        <v>1067253</v>
+        <v>75566219</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F75" s="1">
-        <v>75812391</v>
+        <v>1071399</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F76" s="1">
-        <v>1007037</v>
+        <v>1067253</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F77" s="1">
-        <v>1053538</v>
+        <v>75812391</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F78" s="1">
-        <v>75809088</v>
+        <v>1007037</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F79" s="1">
-        <v>152217558</v>
+        <v>1053498</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F80" s="1">
-        <v>75588637</v>
+        <v>1053538</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F81" s="1">
-        <v>1036838</v>
+        <v>75809088</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F82" s="1">
-        <v>1020566</v>
+        <v>152217558</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F83" s="1">
-        <v>152240004</v>
+        <v>75588637</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F84" s="1">
-        <v>1030541</v>
+        <v>1036838</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F85" s="1">
-        <v>1068183</v>
+        <v>1020566</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F86" s="1">
-        <v>1074614</v>
+        <v>152240004</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F87" s="1">
-        <v>1054057</v>
+        <v>1030541</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F88" s="1">
-        <v>1047699</v>
+        <v>1068183</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F89" s="1">
-        <v>1038594</v>
+        <v>1074614</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F90" s="1">
-        <v>152990045</v>
+        <v>1054057</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F91" s="1">
-        <v>1054450</v>
+        <v>1047699</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F92" s="1">
-        <v>1068624</v>
+        <v>1038594</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F93" s="1">
-        <v>1061184</v>
+        <v>152990045</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F94" s="1">
-        <v>152245055</v>
+        <v>1054450</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="F95" s="1">
-        <v>152219765</v>
+        <v>1068624</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="F96" s="1">
-        <v>152833822</v>
+        <v>1061184</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="F97" s="1">
-        <v>152835112</v>
+        <v>152245055</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F98" s="1">
-        <v>152245525</v>
+        <v>152219765</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="F99" s="1">
-        <v>152050882</v>
+        <v>152245525</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F100" s="1">
-        <v>152250524</v>
+        <v>152050882</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F101" s="1">
-        <v>152843669</v>
+        <v>1021493</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F102" s="1">
-        <v>152228444</v>
+        <v>152843669</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F103" s="1">
-        <v>152241744</v>
+        <v>152035319</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="F104" s="1">
-        <v>152940302</v>
+        <v>152228444</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="F105" s="1">
-        <v>35005062</v>
+        <v>152807386</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F106" s="1">
-        <v>35004875</v>
+        <v>152068597</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F107" s="1">
-        <v>152236712</v>
+        <v>152940302</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="F108" s="1">
-        <v>35006097</v>
+        <v>35005062</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F109" s="1">
-        <v>152953552</v>
+        <v>35004875</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="F110" s="1">
-        <v>35002701</v>
+        <v>35006097</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="F111" s="1">
-        <v>152067762</v>
+        <v>35002701</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="F112" s="1">
-        <v>152989095</v>
+        <v>152067762</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="F113" s="1">
-        <v>152218673</v>
+        <v>152989095</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="F114" s="1">
-        <v>152184316</v>
+        <v>152218673</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F115" s="1">
-        <v>1015510</v>
+        <v>152184316</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="F116" s="1">
-        <v>152832755</v>
+        <v>152872946</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="F117" s="1">
-        <v>35002542</v>
+        <v>152939257</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="F118" s="1">
-        <v>59004485</v>
+        <v>152832755</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="F119" s="1">
-        <v>152899481</v>
+        <v>35002542</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F120" s="1">
-        <v>152863259</v>
+        <v>84003354</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="F121" s="1">
-        <v>152902143</v>
+        <v>59004485</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>408</v>
+        <v>152</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F122" s="1">
-        <v>155000628</v>
+        <v>152899481</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F123" s="1">
-        <v>152916010</v>
+        <v>152902143</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F124" s="1">
+        <v>152916010</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F124" s="1">
-        <v>1064390</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="I124" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="F125" s="1">
-        <v>35002951</v>
+        <v>1064390</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F126" s="1">
-        <v>152225164</v>
+        <v>35002951</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F127" s="1">
         <v>152236583</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F128" s="1">
-        <v>84005494</v>
+        <v>84005004</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F129" s="1">
-        <v>152901759</v>
+        <v>152232430</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="F130" s="1">
-        <v>84005004</v>
+        <v>1054689</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="F131" s="1">
-        <v>152232430</v>
+        <v>1060321</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F132" s="1">
-        <v>1072367</v>
+        <v>152806939</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="F133" s="1">
-        <v>1054689</v>
+        <v>152839453</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="F134" s="1">
-        <v>1060321</v>
+        <v>152846461</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" s="1">
+        <v>152916010</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="F135" s="1">
-        <v>152839453</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="F136" s="1">
-        <v>152846461</v>
+        <v>1064390</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="F137" s="1">
-        <v>152817389</v>
+        <v>35002951</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F138" s="1">
+        <v>152236583</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F139" s="1">
+        <v>84005004</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F140" s="1">
+        <v>152232430</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1054689</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1060321</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F138" s="1">
-        <v>152903960</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>273</v>
+      <c r="F143" s="1">
+        <v>152806939</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F144" s="1">
+        <v>152839453</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" s="1">
+        <v>152846461</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
